--- a/experiments/output/medians.xlsx
+++ b/experiments/output/medians.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\ownCloud\PEKRIS\015-manuscript1\revision1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\ownCloud\PEKRIS\015-manuscript1\revision2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403FA7BD-C86E-497B-85C3-4B7DCC981BA5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECD6F38-B24D-49EC-929C-D861429278F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="9000" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="9600" windowWidth="23040" windowHeight="9048" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="medians" sheetId="1" r:id="rId1"/>
@@ -938,7 +938,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:M9"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,16 +995,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>242.804023391074</v>
+        <v>0.279919560267477</v>
       </c>
       <c r="D2">
-        <v>28.486465753424699</v>
+        <v>27.396470319634702</v>
       </c>
       <c r="E2">
-        <v>29921.6351324309</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>324.26230296040001</v>
+        <v>5351.1918492887398</v>
       </c>
       <c r="H2" t="s">
         <v>19</v>
@@ -1014,19 +1014,19 @@
       </c>
       <c r="J2" s="1">
         <f>C2</f>
-        <v>242.804023391074</v>
+        <v>0.279919560267477</v>
       </c>
       <c r="K2" s="1">
         <f>C3</f>
-        <v>267.606268400457</v>
+        <v>271.65007443571898</v>
       </c>
       <c r="L2" s="2">
         <f>J2-K2</f>
-        <v>-24.802245009383</v>
+        <v>-271.37015487545148</v>
       </c>
       <c r="M2" s="4">
         <f>L2/K2</f>
-        <v>-9.2681853671184949E-2</v>
+        <v>-0.9989695583156053</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -1037,13 +1037,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>267.606268400457</v>
+        <v>271.65007443571898</v>
       </c>
       <c r="D3">
-        <v>28.2183470319635</v>
+        <v>28.177374429223701</v>
       </c>
       <c r="E3">
-        <v>32740.835023059601</v>
+        <v>37096.005073127599</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1053,19 +1053,19 @@
       </c>
       <c r="J3" s="1">
         <f>C5</f>
-        <v>201.18134665451799</v>
+        <v>0.342140974932367</v>
       </c>
       <c r="K3" s="1">
         <f>C6</f>
-        <v>248.82631197344199</v>
+        <v>234.22849527491201</v>
       </c>
       <c r="L3" s="2">
         <f>J3-K3</f>
-        <v>-47.644965318923994</v>
+        <v>-233.88635429997964</v>
       </c>
       <c r="M3" s="4">
         <f>L3/K3</f>
-        <v>-0.19147880680725313</v>
+        <v>-0.99853928543352166</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>868.36553248750499</v>
+        <v>5348.10569652698</v>
       </c>
       <c r="H4" t="s">
         <v>14</v>
@@ -1095,19 +1095,19 @@
       </c>
       <c r="J4" s="1">
         <f>D2</f>
-        <v>28.486465753424699</v>
+        <v>27.396470319634702</v>
       </c>
       <c r="K4" s="1">
         <f>D3</f>
-        <v>28.2183470319635</v>
+        <v>28.177374429223701</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" ref="L4:L9" si="0">J4-K4</f>
-        <v>0.26811872146119953</v>
+        <v>-0.78090410958899881</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" ref="M4:M9" si="1">L4/K4</f>
-        <v>9.5015743182085034E-3</v>
+        <v>-2.7713870628737394E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1118,35 +1118,35 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>201.18134665451799</v>
+        <v>0.342140974932367</v>
       </c>
       <c r="D5">
-        <v>27.889091324200901</v>
+        <v>27.686109589041099</v>
       </c>
       <c r="E5">
-        <v>18745.480479057002</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>304.99967961040602</v>
+        <v>4405.8679354094602</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
       </c>
       <c r="J5" s="1">
         <f>D5</f>
-        <v>27.889091324200901</v>
+        <v>27.686109589041099</v>
       </c>
       <c r="K5" s="1">
         <f>D6</f>
-        <v>27.430922374429201</v>
+        <v>27.9480867579909</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="0"/>
-        <v>0.45816894977170008</v>
+        <v>-0.26197716894980161</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="1"/>
-        <v>1.6702644683898784E-2</v>
+        <v>-9.3737067305652774E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -1157,13 +1157,13 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>248.82631197344199</v>
+        <v>234.22849527491201</v>
       </c>
       <c r="D6">
-        <v>27.430922374429201</v>
+        <v>27.9480867579909</v>
       </c>
       <c r="E6">
-        <v>24522.001791987499</v>
+        <v>22061.897790453</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1176,19 +1176,19 @@
       </c>
       <c r="J6" s="1">
         <f>E2</f>
-        <v>29921.6351324309</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <f>E3</f>
-        <v>32740.835023059601</v>
+        <v>37096.005073127599</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="0"/>
-        <v>-2819.1998906287008</v>
+        <v>-37096.005073127599</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="1"/>
-        <v>-8.6106536031934383E-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -1208,26 +1208,26 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>813.96578239138796</v>
+        <v>4398.7208445469696</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
       </c>
       <c r="J7" s="1">
         <f>E5</f>
-        <v>18745.480479057002</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <f>E6</f>
-        <v>24522.001791987499</v>
+        <v>22061.897790453</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" si="0"/>
-        <v>-5776.5213129304975</v>
+        <v>-22061.897790453</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="1"/>
-        <v>-0.23556483528265465</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -1239,19 +1239,19 @@
       </c>
       <c r="J8" s="1">
         <f>F2</f>
-        <v>324.26230296040001</v>
+        <v>5351.1918492887398</v>
       </c>
       <c r="K8" s="1">
         <f>F4</f>
-        <v>868.36553248750499</v>
+        <v>5348.10569652698</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="0"/>
-        <v>-544.10322952710499</v>
+        <v>3.0861527617598767</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="1"/>
-        <v>-0.62658317168402133</v>
+        <v>5.770553046032732E-4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -1260,19 +1260,19 @@
       </c>
       <c r="J9" s="1">
         <f>F5</f>
-        <v>304.99967961040602</v>
+        <v>4405.8679354094602</v>
       </c>
       <c r="K9" s="1">
         <f>F7</f>
-        <v>813.96578239138796</v>
+        <v>4398.7208445469696</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="0"/>
-        <v>-508.96610278098194</v>
+        <v>7.147090862490586</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="1"/>
-        <v>-0.62529176753065308</v>
+        <v>1.624811192860927E-3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
